--- a/xl/personal.xlsx
+++ b/xl/personal.xlsx
@@ -1,41 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="개인정보" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="빈소1" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="빈소2" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="빈소3" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="빈소5" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="빈소6" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="특101" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="특102" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="특201" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="특202" sheetId="10" r:id="rId13"/>
+    <sheet name="개인정보" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="빈소1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="빈소2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="빈소3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="빈소5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="빈소6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="특101" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="특102" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="특201" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="특202" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="10.0"/>
+      <name val="Arial"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="10"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
@@ -45,58 +42,85 @@
     <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -294,141 +318,251 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A0:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData>
+    <row r="0"/>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>양념치킨</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>9000</v>
+      </c>
+      <c r="C1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>치즈김밥</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2500</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>김밥</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>배추김치</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8000</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/xl/personal.xlsx
+++ b/xl/personal.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A0:E4"/>
+  <dimension ref="A0:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -367,18 +367,34 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="0"/>
+    <row r="0">
+      <c r="A0" t="inlineStr">
+        <is>
+          <t>치킨</t>
+        </is>
+      </c>
+      <c r="B0" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D0" t="n">
+        <v>8000</v>
+      </c>
+      <c r="E0" t="inlineStr"/>
+    </row>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>양념치킨</t>
+          <t>삼겹살</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1" t="n">
         <v>9000</v>
@@ -395,17 +411,17 @@
         <v>2500</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>2500</v>
+        <v>22500</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>김밥</t>
+          <t>대패삼겹살</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -422,20 +438,37 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>배추김치</t>
+          <t>양념치킨</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>8000</v>
+        <v>63000</v>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>치킨</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16000</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/xl/personal.xlsx
+++ b/xl/personal.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A0:E5"/>
+  <dimension ref="A0:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -370,17 +370,17 @@
     <row r="0">
       <c r="A0" t="inlineStr">
         <is>
-          <t>치킨</t>
+          <t>치즈김밥</t>
         </is>
       </c>
       <c r="B0" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="C0" t="n">
         <v>1</v>
       </c>
       <c r="D0" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="E0" t="inlineStr"/>
     </row>
@@ -394,10 +394,10 @@
         <v>3000</v>
       </c>
       <c r="C1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="E1" t="inlineStr"/>
     </row>
@@ -411,64 +411,13 @@
         <v>2500</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>22500</v>
+        <v>5000</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>대패삼겹살</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>양념치킨</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>9000</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>63000</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>치킨</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>8000</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16000</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/xl/personal.xlsx
+++ b/xl/personal.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A0:E2"/>
+  <dimension ref="A0:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -368,55 +368,38 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="0">
-      <c r="A0" t="inlineStr">
-        <is>
-          <t>치즈김밥</t>
-        </is>
-      </c>
-      <c r="B0" t="n">
-        <v>2500</v>
-      </c>
-      <c r="C0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D0" t="n">
-        <v>2500</v>
-      </c>
-      <c r="E0" t="inlineStr"/>
-    </row>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A0" s="0" t="inlineStr">
         <is>
           <t>삼겹살</t>
         </is>
       </c>
-      <c r="B1" t="n">
+      <c r="B0" s="0" t="n">
         <v>3000</v>
       </c>
-      <c r="C1" t="n">
+      <c r="C0" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D1" t="n">
+      <c r="D0" s="0" t="n">
         <v>3000</v>
       </c>
-      <c r="E1" t="inlineStr"/>
+      <c r="E0" s="0" t="inlineStr"/>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>치즈김밥</t>
+          <t>양념치킨</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>2500</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="B1" s="0" t="n">
+        <v>9000</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E1" s="0" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xl/personal.xlsx
+++ b/xl/personal.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A0:E2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -367,23 +367,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="0">
-      <c r="A0" t="inlineStr">
-        <is>
-          <t>치즈김밥</t>
-        </is>
-      </c>
-      <c r="B0" t="n">
-        <v>2500</v>
-      </c>
-      <c r="C0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D0" t="n">
-        <v>2500</v>
-      </c>
-      <c r="E0" t="inlineStr"/>
-    </row>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
@@ -411,10 +394,10 @@
         <v>2500</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/xl/personal.xlsx
+++ b/xl/personal.xlsx
@@ -1,130 +1,101 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\project\xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="개인정보" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="빈소1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="빈소2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="빈소3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="빈소5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="빈소6" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="특101" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="특102" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="특201" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="특202" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="개인정보" sheetId="1" r:id="rId1"/>
+    <sheet name="빈소1" sheetId="2" r:id="rId2"/>
+    <sheet name="빈소2" sheetId="3" r:id="rId3"/>
+    <sheet name="빈소3" sheetId="4" r:id="rId4"/>
+    <sheet name="빈소5" sheetId="5" r:id="rId5"/>
+    <sheet name="빈소6" sheetId="6" r:id="rId6"/>
+    <sheet name="특101" sheetId="7" r:id="rId7"/>
+    <sheet name="특102" sheetId="8" r:id="rId8"/>
+    <sheet name="특201" sheetId="9" r:id="rId9"/>
+    <sheet name="특202" sheetId="10" r:id="rId10"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>삼겹살</t>
+  </si>
+  <si>
+    <t>치즈김밥</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -314,220 +285,199 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>삼겹살</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
         <v>3000</v>
       </c>
-      <c r="C1" t="n">
+      <c r="C1">
         <v>1</v>
       </c>
-      <c r="D1" t="n">
+      <c r="D1">
         <v>3000</v>
       </c>
-      <c r="E1" t="inlineStr"/>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>치즈김밥</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>2500</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>2500</v>
       </c>
-      <c r="E2" t="inlineStr"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/xl/personal.xlsx
+++ b/xl/personal.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A0:E1"/>
+  <dimension ref="A0:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -370,36 +370,257 @@
     <row r="0">
       <c r="A0" s="0" t="inlineStr">
         <is>
-          <t>삼겹살</t>
+          <t>치즈김밥</t>
         </is>
       </c>
       <c r="B0" s="0" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="C0" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D0" s="0" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="E0" s="0" t="inlineStr"/>
     </row>
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>양념치킨</t>
+          <t>치즈김밥</t>
         </is>
       </c>
       <c r="B1" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E1" s="0" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>삼겹살</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E2" s="0" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>대패삼겹살</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="E3" s="0" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>치즈김밥</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>12500</v>
+      </c>
+      <c r="E4" s="0" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>김밥</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>8000</v>
+      </c>
+      <c r="E5" s="0" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>닭볶음탕</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
         <v>9000</v>
       </c>
-      <c r="C1" s="0" t="n">
+      <c r="C6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>18000</v>
+      </c>
+      <c r="E6" s="0" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>녹말요지</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>2200</v>
+      </c>
+      <c r="E7" s="0" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>접시100</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E8" s="0" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>삼겹살</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="n">
+      <c r="D9" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="0" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>대패삼겹살</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="E10" s="0" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>치즈김밥</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>12500</v>
+      </c>
+      <c r="E11" s="0" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>김밥</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>8000</v>
+      </c>
+      <c r="E12" s="0" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>닭볶음탕</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
         <v>9000</v>
       </c>
-      <c r="E1" s="0" t="inlineStr"/>
+      <c r="C13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>18000</v>
+      </c>
+      <c r="E13" s="0" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>식탁보</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E14" s="0" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xl/personal.xlsx
+++ b/xl/personal.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A0:E14"/>
+  <dimension ref="A0:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -377,143 +377,143 @@
         <v>2500</v>
       </c>
       <c r="C0" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D0" s="0" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="E0" s="0" t="inlineStr"/>
     </row>
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>치즈김밥</t>
+          <t>김밥</t>
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="E1" s="0" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>삼겹살</t>
+          <t>대패삼겹살</t>
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>3000</v>
+        <v>50000</v>
       </c>
       <c r="E2" s="0" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>대패삼겹살</t>
+          <t>치즈김밥</t>
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>50000</v>
+        <v>12500</v>
       </c>
       <c r="E3" s="0" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>치즈김밥</t>
+          <t>김밥</t>
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="E4" s="0" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>김밥</t>
+          <t>닭볶음탕</t>
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="E5" s="0" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>닭볶음탕</t>
+          <t>녹말요지</t>
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>9000</v>
+        <v>1100</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>18000</v>
+        <v>2200</v>
       </c>
       <c r="E6" s="0" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>녹말요지</t>
+          <t>접시100</t>
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="E7" s="0" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>접시100</t>
+          <t>삼겹살</t>
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>3000</v>
@@ -523,105 +523,88 @@
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>삼겹살</t>
+          <t>대패삼겹살</t>
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>3000</v>
+        <v>50000</v>
       </c>
       <c r="E9" s="0" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>대패삼겹살</t>
+          <t>치즈김밥</t>
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>50000</v>
+        <v>12500</v>
       </c>
       <c r="E10" s="0" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>치즈김밥</t>
+          <t>김밥</t>
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="E11" s="0" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>김밥</t>
+          <t>닭볶음탕</t>
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="E12" s="0" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>닭볶음탕</t>
+          <t>식탁보</t>
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="E13" s="0" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>식탁보</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>6000</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>12000</v>
-      </c>
-      <c r="E14" s="0" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/xl/personal.xlsx
+++ b/xl/personal.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A0:E13"/>
+  <dimension ref="A0:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -368,242 +368,38 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="0">
-      <c r="A0" s="0" t="inlineStr">
+      <c r="A0" t="inlineStr">
         <is>
           <t>치즈김밥</t>
         </is>
       </c>
-      <c r="B0" s="0" t="n">
+      <c r="B0" t="n">
         <v>2500</v>
       </c>
-      <c r="C0" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D0" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E0" s="0" t="inlineStr"/>
+      <c r="C0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D0" t="n">
+        <v>25000</v>
+      </c>
+      <c r="E0" t="inlineStr"/>
     </row>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>김밥</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E1" s="0" t="inlineStr"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>대패삼겹살</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>50000</v>
-      </c>
-      <c r="E2" s="0" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>치즈김밥</t>
         </is>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B1" t="n">
         <v>2500</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C1" t="n">
         <v>5</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>12500</v>
-      </c>
-      <c r="E3" s="0" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>김밥</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>8000</v>
-      </c>
-      <c r="E4" s="0" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>닭볶음탕</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>9000</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>18000</v>
-      </c>
-      <c r="E5" s="0" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>녹말요지</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>2200</v>
-      </c>
-      <c r="E6" s="0" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>접시100</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E7" s="0" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>삼겹살</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E8" s="0" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>대패삼겹살</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>50000</v>
-      </c>
-      <c r="E9" s="0" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>치즈김밥</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>2500</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>12500</v>
-      </c>
-      <c r="E10" s="0" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>김밥</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>8000</v>
-      </c>
-      <c r="E11" s="0" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>닭볶음탕</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>9000</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>18000</v>
-      </c>
-      <c r="E12" s="0" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>식탁보</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>6000</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>12000</v>
-      </c>
-      <c r="E13" s="0" t="inlineStr"/>
+      <c r="D1" t="n">
+        <v>25000</v>
+      </c>
+      <c r="E1" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xl/personal.xlsx
+++ b/xl/personal.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A0:E1"/>
+  <dimension ref="A0:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -368,38 +368,89 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="0">
-      <c r="A0" t="inlineStr">
+      <c r="A0" s="0" t="inlineStr">
+        <is>
+          <t>된장국</t>
+        </is>
+      </c>
+      <c r="B0" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C0" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D0" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E0" s="0" t="inlineStr"/>
+    </row>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>된장국</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E1" s="0" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>삼겹살</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>24000</v>
+      </c>
+      <c r="E2" s="0" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>치즈김밥</t>
         </is>
       </c>
-      <c r="B0" t="n">
+      <c r="B3" s="0" t="n">
         <v>2500</v>
       </c>
-      <c r="C0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D0" t="n">
-        <v>25000</v>
-      </c>
-      <c r="E0" t="inlineStr"/>
+      <c r="C3" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>42500</v>
+      </c>
+      <c r="E3" s="0" t="inlineStr"/>
     </row>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>치즈김밥</t>
+          <t>닭볶음탕</t>
         </is>
       </c>
-      <c r="B1" t="n">
-        <v>2500</v>
-      </c>
-      <c r="C1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D1" t="n">
-        <v>25000</v>
-      </c>
-      <c r="E1" t="inlineStr"/>
+      <c r="B4" s="0" t="n">
+        <v>9000</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>54000</v>
+      </c>
+      <c r="E4" s="0" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xl/personal.xlsx
+++ b/xl/personal.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A0:E4"/>
+  <dimension ref="A0:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,10 +428,10 @@
         <v>2500</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>42500</v>
+        <v>100000</v>
       </c>
       <c r="E3" s="0" t="inlineStr"/>
     </row>
@@ -445,13 +445,34 @@
         <v>9000</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>54000</v>
+        <v>63000</v>
       </c>
       <c r="E4" s="0" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>양념치킨</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>9000</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>18000</v>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/xl/personal.xlsx
+++ b/xl/personal.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A0:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -367,107 +367,211 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="0">
-      <c r="A0" s="0" t="inlineStr">
-        <is>
-          <t>된장국</t>
-        </is>
-      </c>
-      <c r="B0" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="C0" s="0" t="n">
+    <row r="1"/>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>새우튀김</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>2600</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D0" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E0" s="0" t="inlineStr"/>
-    </row>
+      <c r="D2" s="0" t="n">
+        <v>2600</v>
+      </c>
+      <c r="E2" s="0" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>닭볶음탕</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData>
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
+          <t>닭볶음탕</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>9000</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E1" s="0" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>새우튀김</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2600</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2600</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>삼겹살</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>된장국</t>
         </is>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B4" t="n">
         <v>3000</v>
       </c>
-      <c r="C1" s="0" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="n">
+      <c r="D4" t="n">
         <v>6000</v>
       </c>
-      <c r="E1" s="0" t="inlineStr"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
         <is>
           <t>삼겹살</t>
         </is>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B1" t="n">
         <v>3000</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>24000</v>
-      </c>
-      <c r="E2" s="0" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>치즈김밥</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>2500</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="E3" s="0" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>닭볶음탕</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>9000</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>63000</v>
-      </c>
-      <c r="E4" s="0" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>양념치킨</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>9000</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>18000</v>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
+      <c r="C1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E1" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -478,7 +582,47 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>오징어튀김</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>2600</v>
+      </c>
+      <c r="C1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" t="n">
+        <v>2600</v>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -496,7 +640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -512,94 +656,4 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/xl/personal.xlsx
+++ b/xl/personal.xlsx
@@ -359,79 +359,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData>
-    <row r="1"/>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>새우튀김</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>2600</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>2600</v>
-      </c>
-      <c r="E2" s="0" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>닭볶음탕</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>9000</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,88 +370,155 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>닭볶음탕</t>
+          <t>양념치킨</t>
         </is>
       </c>
       <c r="B1" s="0" t="n">
         <v>9000</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>9000</v>
+        <v>36000</v>
       </c>
       <c r="E1" s="0" t="inlineStr"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>새우튀김</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2600</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>닭볶음탕</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>9000</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>2600</v>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D2" s="0" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E2" s="0" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A0:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData>
+    <row r="0">
+      <c r="A0" s="0" t="inlineStr">
+        <is>
+          <t>양념치킨</t>
+        </is>
+      </c>
+      <c r="B0" s="0" t="n">
+        <v>9000</v>
+      </c>
+      <c r="C0" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D0" s="0" t="n">
+        <v>18000</v>
+      </c>
+      <c r="E0" s="0" t="inlineStr"/>
+    </row>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>닭볶음탕</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>9000</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>양념치킨</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>9000</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>삼겹살</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3000</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>김밥</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>된장국</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3000</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="D3" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E3" s="0" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -548,36 +543,14 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>삼겹살</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>3000</v>
-      </c>
-      <c r="C1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -588,36 +561,14 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>오징어튀김</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>2600</v>
-      </c>
-      <c r="C1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" t="n">
-        <v>2600</v>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/xl/personal.xlsx
+++ b/xl/personal.xlsx
@@ -359,7 +359,47 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>양념치킨</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>9000</v>
+      </c>
+      <c r="C1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -377,76 +417,6 @@
         <v>9000</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D1" s="0" t="n">
-        <v>36000</v>
-      </c>
-      <c r="E1" s="0" t="inlineStr"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>닭볶음탕</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>9000</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E2" s="0" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A0:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData>
-    <row r="0">
-      <c r="A0" s="0" t="inlineStr">
-        <is>
-          <t>양념치킨</t>
-        </is>
-      </c>
-      <c r="B0" s="0" t="n">
-        <v>9000</v>
-      </c>
-      <c r="C0" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D0" s="0" t="n">
-        <v>18000</v>
-      </c>
-      <c r="E0" s="0" t="inlineStr"/>
-    </row>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>닭볶음탕</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>9000</v>
-      </c>
-      <c r="C1" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D1" s="0" t="n">
@@ -458,44 +428,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>양념치킨</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>9000</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>김밥</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E3" s="0" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/xl/personal.xlsx
+++ b/xl/personal.xlsx
@@ -359,36 +359,14 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>양념치킨</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>9000</v>
-      </c>
-      <c r="C1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -399,36 +377,14 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>양념치킨</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>9000</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="0" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E1" s="0" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/xl/personal.xlsx
+++ b/xl/personal.xlsx
@@ -377,14 +377,36 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData/>
+  <dimension ref="A2:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>맥주</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/xl/personal.xlsx
+++ b/xl/personal.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E2"/>
+  <dimension ref="A2:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -406,6 +406,48 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>치킨</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>8000</v>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>대패삼겹살</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -453,14 +495,36 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData/>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>맥주</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/xl/personal.xlsx
+++ b/xl/personal.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -385,140 +385,120 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
+    <row r="1"/>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>치즈김밥</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>대패삼겹살</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
         <is>
           <t>맥주</t>
         </is>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B1" s="0" t="n">
         <v>4000</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>12000</v>
-      </c>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>치킨</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>8000</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="C1" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>8000</v>
-      </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>대패삼겹살</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>맥주</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
+      <c r="D1" s="0" t="n">
         <v>4000</v>
       </c>
-      <c r="C1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" t="n">
-        <v>4000</v>
-      </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>

--- a/xl/personal.xlsx
+++ b/xl/personal.xlsx
@@ -349,7 +349,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col width="18.5" customWidth="1" style="3" min="4" max="4"/>
   </cols>
@@ -581,96 +581,6 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -680,94 +590,144 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>삼겹살</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>3000</v>
-      </c>
-      <c r="C1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" t="n">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>치즈김밥</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>식탁보</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
         <v>6000</v>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>식탁보</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>6000</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18000</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>치즈김밥</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2500</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>김밥</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/xl/personal.xlsx
+++ b/xl/personal.xlsx
@@ -349,7 +349,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="18.5" customWidth="1" style="3" min="4" max="4"/>
   </cols>
@@ -581,7 +581,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,49 +590,48 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>치즈김밥</t>
         </is>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1" t="n">
         <v>2500</v>
       </c>
-      <c r="C1" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="D1" s="0" t="n">
-        <v>60000</v>
-      </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="C1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1" t="n">
+        <v>7500</v>
+      </c>
+      <c r="E1" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
-    <row r="2"/>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>삼겹살</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
     <row r="3"/>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>식탁보</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>6000</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/xl/personal.xlsx
+++ b/xl/personal.xlsx
@@ -343,7 +343,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -355,68 +355,46 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>202301</v>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>김</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>2023-1-3~2023-1-4</t>
-        </is>
-      </c>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr"/>
+      <c r="D1" s="1" t="inlineStr"/>
+      <c r="E1" s="0" t="inlineStr"/>
+      <c r="F1" s="0" t="inlineStr"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>202302</v>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>이</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>Daniel</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>2023-1-4~2023-1-5</t>
-        </is>
-      </c>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr"/>
+      <c r="C2" s="1" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr"/>
+      <c r="E2" s="0" t="inlineStr"/>
+      <c r="F2" s="0" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>202303</v>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>박</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>Peter</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>2023-1-3~2023-1-4</t>
-        </is>
-      </c>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr"/>
+      <c r="C3" s="1" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="0" t="inlineStr"/>
+      <c r="F3" s="0" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>202304</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
@@ -435,8 +413,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>202305</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
@@ -455,8 +435,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>202306</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
@@ -581,7 +563,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,48 +572,47 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="0" t="inlineStr">
         <is>
           <t>치즈김밥</t>
         </is>
       </c>
-      <c r="B1" t="n">
+      <c r="B1" s="0" t="n">
         <v>2500</v>
       </c>
-      <c r="C1" t="n">
+      <c r="C1" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D1" t="n">
+      <c r="D1" s="0" t="n">
         <v>7500</v>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>삼겹살</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="0" t="n">
         <v>3000</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="0" t="n">
         <v>3000</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
-    <row r="3"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/xl/personal.xlsx
+++ b/xl/personal.xlsx
@@ -349,7 +349,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col width="18.5" customWidth="1" style="3" min="4" max="4"/>
   </cols>
@@ -360,34 +360,90 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr"/>
-      <c r="C1" s="1" t="inlineStr"/>
-      <c r="D1" s="1" t="inlineStr"/>
-      <c r="E1" s="0" t="inlineStr"/>
-      <c r="F1" s="0" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr"/>
-      <c r="C2" s="1" t="inlineStr"/>
-      <c r="D2" s="2" t="inlineStr"/>
-      <c r="E2" s="0" t="inlineStr"/>
-      <c r="F2" s="0" t="inlineStr"/>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr"/>
-      <c r="C3" s="1" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="0" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
       <c r="F3" s="0" t="inlineStr"/>
     </row>
     <row r="4">
